--- a/usmart_energy_site/seed_files/transactions_seed.xlsx
+++ b/usmart_energy_site/seed_files/transactions_seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pstewy/Documents/SeniorCollege/SeniorCapstoneProject/code/usmart-energy/usmart_energy_site/seed_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonhansen/Documents/School/capstone/usmart-energy/usmart_energy_site/seed_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6824BA7-CF2B-2042-8F28-92B440753E6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5C698-C707-7942-ADD5-6EBC325F52AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="10000" windowHeight="14780" xr2:uid="{EB7AE7AD-17A5-8F4A-ACDB-70BCB2EAE6AE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="7760" xr2:uid="{EB7AE7AD-17A5-8F4A-ACDB-70BCB2EAE6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,46 +375,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD824C9A-CB1E-164B-B760-75B35DD5A60F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
+        <v>35</v>
+      </c>
+      <c r="D1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>30</v>
-      </c>
-      <c r="E1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
